--- a/Updated_STUDENT_LIST.xlsx
+++ b/Updated_STUDENT_LIST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>NAME</t>
   </si>
@@ -44,280 +44,292 @@
     <t>GENDER</t>
   </si>
   <si>
-    <t>schID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa'ad Ahmed Sa'ad </t>
-  </si>
-  <si>
-    <t>TSA/24/1299</t>
-  </si>
-  <si>
-    <t>GRADE 5 RHODIUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male </t>
-  </si>
-  <si>
-    <t>Umar Magaji</t>
-  </si>
-  <si>
-    <t>TSA/24/1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usman AbdulKadir Idris </t>
-  </si>
-  <si>
-    <t>TSA/24/1301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aisha Masud Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karima Lawan Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1303</t>
-  </si>
-  <si>
-    <t>Khadija Kabir Aminu</t>
-  </si>
-  <si>
-    <t>TSA/24/1304</t>
-  </si>
-  <si>
-    <t>Khadija Umar Tijjani</t>
-  </si>
-  <si>
-    <t>TSA/24/1305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khadija Musa Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1306</t>
-  </si>
-  <si>
-    <t>Maryam Buhari Sani</t>
-  </si>
-  <si>
-    <t>TSA/24/1307</t>
-  </si>
-  <si>
-    <t>Rabai Abubakar  Saleh</t>
-  </si>
-  <si>
-    <t>TSA/24/1308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukaya Ado Muhammed </t>
-  </si>
-  <si>
-    <t>TSA/24/1309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukaya Ya'u Abubakar </t>
-  </si>
-  <si>
-    <t>TSA/24/1310</t>
-  </si>
-  <si>
-    <t>sa'adatu Nura sani</t>
-  </si>
-  <si>
-    <t>TSA/24/1311</t>
-  </si>
-  <si>
-    <t>Sabreen Musa Garba</t>
-  </si>
-  <si>
-    <t>TSA/24/1312</t>
-  </si>
-  <si>
-    <t>Safiya Hamisu Zakariya</t>
-  </si>
-  <si>
-    <t>TSA/24/1313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abubakar H Bashir </t>
-  </si>
-  <si>
-    <t>TSA/24/1314</t>
-  </si>
-  <si>
-    <t>GRADE 5 GOLD</t>
-  </si>
-  <si>
-    <t>Abubakar Ado Jibrin</t>
-  </si>
-  <si>
-    <t>TSA/24/1315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abubakar Nasir Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1316</t>
-  </si>
-  <si>
-    <t>Ahmed Sani Malami</t>
-  </si>
-  <si>
-    <t>TSA/24/1317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abduhamid Abubakar Musa </t>
-  </si>
-  <si>
-    <t>TSA/24/1318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliyu Aliyu Muhammed </t>
-  </si>
-  <si>
-    <t>TSA/24/1319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bashir S Sharif </t>
-  </si>
-  <si>
-    <t>TSA/24/1320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibrahim Lawan Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khalifa Sunusi Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1322</t>
-  </si>
-  <si>
-    <t>Muhammed Bello Dansarari</t>
-  </si>
-  <si>
-    <t>TSA/24/1323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammed Ali Rabi'u </t>
-  </si>
-  <si>
-    <t>TSA/24/1324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammed Adam </t>
-  </si>
-  <si>
-    <t>TSA/24/1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamsudeen Muhammed </t>
-  </si>
-  <si>
-    <t>TSA/24/1326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idris Idris Umar </t>
-  </si>
-  <si>
-    <t>TSA/24/1327</t>
-  </si>
-  <si>
-    <t>sadiq Ibrahim Gambo</t>
-  </si>
-  <si>
-    <t>TSA/24/1328</t>
-  </si>
-  <si>
-    <t>Aisha Bala Dahir</t>
-  </si>
-  <si>
-    <t>TSA/24/1329</t>
-  </si>
-  <si>
-    <t>Amina Bashir Uba</t>
-  </si>
-  <si>
-    <t>TSA/24/1330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aisha Kabir Adam </t>
-  </si>
-  <si>
-    <t>TSA/24/1331</t>
-  </si>
-  <si>
-    <t>Amina Abdulmumin</t>
-  </si>
-  <si>
-    <t>TSA/24/1332</t>
-  </si>
-  <si>
-    <t>Amina Lawan</t>
-  </si>
-  <si>
-    <t>TSA/24/1333</t>
-  </si>
-  <si>
-    <t>Asma'u Ahmed Madaki</t>
-  </si>
-  <si>
-    <t>TSA/24/1334</t>
-  </si>
-  <si>
-    <t>Fatima Hassan Hamza</t>
-  </si>
-  <si>
-    <t>TSA/24/1335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatima Adam Adam </t>
-  </si>
-  <si>
-    <t>TSA/24/1336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khadija Muhammed </t>
-  </si>
-  <si>
-    <t>TSA/24/1337</t>
+    <t xml:space="preserve">schID </t>
+  </si>
+  <si>
+    <t>Abubakar Abubakar Muhammadu</t>
+  </si>
+  <si>
+    <t>HIS/24/1635</t>
+  </si>
+  <si>
+    <t>PRE-NURSERY GREEN</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adam Adam</t>
+  </si>
+  <si>
+    <t>HIS/24/1636</t>
+  </si>
+  <si>
+    <t>Aminu Ahmad Isah</t>
+  </si>
+  <si>
+    <t>HIS/24/1637</t>
+  </si>
+  <si>
+    <t>Aminu Muhammad Tukur Hassan</t>
+  </si>
+  <si>
+    <t>HIS/24/1638</t>
+  </si>
+  <si>
+    <t>Muhammad Abdulkareem Bello</t>
+  </si>
+  <si>
+    <t>HIS/24/1639</t>
+  </si>
+  <si>
+    <t>Musa Saeed Madu</t>
+  </si>
+  <si>
+    <t>HIS/24/1640</t>
+  </si>
+  <si>
+    <t>Nura Abdulrahman Lawan</t>
+  </si>
+  <si>
+    <t>HIS/24/1641</t>
+  </si>
+  <si>
+    <t>Nura Ibrahim</t>
+  </si>
+  <si>
+    <t>HIS/24/1642</t>
+  </si>
+  <si>
+    <t>Shehu Ramadan</t>
+  </si>
+  <si>
+    <t>HIS/24/1643</t>
+  </si>
+  <si>
+    <t>Suleiman Faisal</t>
+  </si>
+  <si>
+    <t>HIS/24/1644</t>
+  </si>
+  <si>
+    <t>Umar Muhammad</t>
+  </si>
+  <si>
+    <t>HIS/24/1645</t>
+  </si>
+  <si>
+    <t>Umar Muhammad Usman</t>
+  </si>
+  <si>
+    <t>HIS/24/1646</t>
+  </si>
+  <si>
+    <t>Usman Yusuf</t>
+  </si>
+  <si>
+    <t>HIS/24/1647</t>
+  </si>
+  <si>
+    <t>Abdulrasheed Halima</t>
+  </si>
+  <si>
+    <t>HIS/24/1648</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Rabi'a Usman Abdullahi </t>
-  </si>
-  <si>
-    <t>TSA/24/1338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukaya Hafiz Idris </t>
-  </si>
-  <si>
-    <t>TSA/24/1339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safiya Muktar Lawan </t>
-  </si>
-  <si>
-    <t>TSA/24/1340</t>
-  </si>
-  <si>
-    <t>ummusalma Ibrahim Abdullahi</t>
-  </si>
-  <si>
-    <t>TSA/24/1341</t>
+    <t>Abdul Wahab Safiya</t>
+  </si>
+  <si>
+    <t>HIS/24/1649</t>
+  </si>
+  <si>
+    <t>Abubakar Aisha Sahabi</t>
+  </si>
+  <si>
+    <t>HIS/24/1650</t>
+  </si>
+  <si>
+    <t>Ado Zarah Umar</t>
+  </si>
+  <si>
+    <t>HIS/24/1651</t>
+  </si>
+  <si>
+    <t>Idris Latifa</t>
+  </si>
+  <si>
+    <t>HIS/24/1652</t>
+  </si>
+  <si>
+    <t>Ismail Zuwaira Sulaiman</t>
+  </si>
+  <si>
+    <t>HIS/24/1653</t>
+  </si>
+  <si>
+    <t>Muhammad Ichadijah</t>
+  </si>
+  <si>
+    <t>HIS/24/1654</t>
+  </si>
+  <si>
+    <t>Mohammed Aisha Yahaya</t>
+  </si>
+  <si>
+    <t>HIS/24/1655</t>
+  </si>
+  <si>
+    <t>Zubair Muhiba</t>
+  </si>
+  <si>
+    <t>HIS/24/1656</t>
+  </si>
+  <si>
+    <t>Ahmad Murtala Yakubu</t>
+  </si>
+  <si>
+    <t>HIS/24/1657</t>
+  </si>
+  <si>
+    <t>PRE-NURSERY PINK</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Adam Adam Balarabe</t>
+  </si>
+  <si>
+    <t>HIS/24/1658</t>
+  </si>
+  <si>
+    <t>Muhammad Nabeel Abdulaziz</t>
+  </si>
+  <si>
+    <t>HIS/24/1659</t>
+  </si>
+  <si>
+    <t>Muhammad Shamsudeen Yahaya</t>
+  </si>
+  <si>
+    <t>HIS/24/1660</t>
+  </si>
+  <si>
+    <t>Muhammad Muhd Saminu</t>
+  </si>
+  <si>
+    <t>HIS/24/1661</t>
+  </si>
+  <si>
+    <t>Muhammad Ali Hassan</t>
+  </si>
+  <si>
+    <t>HIS/24/1662</t>
+  </si>
+  <si>
+    <t>Sadiq Bashir Danlami</t>
+  </si>
+  <si>
+    <t>HIS/24/1663</t>
+  </si>
+  <si>
+    <t>Sadiq Babakura</t>
+  </si>
+  <si>
+    <t>HIS/24/1664</t>
+  </si>
+  <si>
+    <t>Ahmad Hafiz Bashir</t>
+  </si>
+  <si>
+    <t>HIS/24/1665</t>
+  </si>
+  <si>
+    <t>Abdullahi Nasir Muhammad</t>
+  </si>
+  <si>
+    <t>HIS/24/1666</t>
+  </si>
+  <si>
+    <t>Muhammad Sulaibu Nasir</t>
+  </si>
+  <si>
+    <t>HIS/24/1667</t>
+  </si>
+  <si>
+    <t>Bilal Hamza Ahmed</t>
+  </si>
+  <si>
+    <t>HIS/24/1668</t>
+  </si>
+  <si>
+    <t>Aisha Abdulkadir Muhammad Saleh</t>
+  </si>
+  <si>
+    <t>HIS/24/1669</t>
+  </si>
+  <si>
+    <t>Atiqa Abdullahi Alkali</t>
+  </si>
+  <si>
+    <t>HIS/24/1670</t>
+  </si>
+  <si>
+    <t>Asma Yusuf Dan Fulani</t>
+  </si>
+  <si>
+    <t>HIS/24/1671</t>
+  </si>
+  <si>
+    <t>Aminu Abdulkarim Sahabi</t>
+  </si>
+  <si>
+    <t>HIS/24/1672</t>
+  </si>
+  <si>
+    <t>Amina Muktaruddin Murtala</t>
+  </si>
+  <si>
+    <t>HIS/24/1673</t>
+  </si>
+  <si>
+    <t>Fidausi Abdulrahman</t>
+  </si>
+  <si>
+    <t>HIS/24/1674</t>
+  </si>
+  <si>
+    <t>Hauwa Kabiru Aliyu</t>
+  </si>
+  <si>
+    <t>HIS/24/1675</t>
+  </si>
+  <si>
+    <t>Halima Yakubu</t>
+  </si>
+  <si>
+    <t>HIS/24/1676</t>
+  </si>
+  <si>
+    <t>Safiyya Muhammad Ahmed</t>
+  </si>
+  <si>
+    <t>HIS/24/1677</t>
+  </si>
+  <si>
+    <t>Hauwa Zahradeen</t>
+  </si>
+  <si>
+    <t>HIS/24/1678</t>
+  </si>
+  <si>
+    <t>Halima Umar Yahaya</t>
+  </si>
+  <si>
+    <t>HIS/24/1679</t>
   </si>
 </sst>
 </file>
@@ -1311,16 +1323,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.6548672566372" customWidth="1"/>
-    <col min="2" max="2" width="32.7256637168142" customWidth="1"/>
+    <col min="4" max="4" width="38.6371681415929" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1351,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1360,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1371,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1380,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1391,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1400,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1411,216 +1422,216 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
       <c r="C12">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
       <c r="C14">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
       <c r="C15">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1631,16 +1642,16 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>604</v>
+        <v>955</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1651,476 +1662,476 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
       <c r="C18">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
       <c r="C19">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
       <c r="C20">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
       <c r="C21">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
       <c r="C22">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
       <c r="C23">
-        <v>572</v>
+        <v>955</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>956</v>
+      </c>
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="C24">
-        <v>572</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24">
-        <v>34</v>
+      <c r="F24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>956</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25">
-        <v>572</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26">
-        <v>34</v>
+      <c r="F26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27">
-        <v>34</v>
+      <c r="F27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28">
-        <v>34</v>
+      <c r="F28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29">
-        <v>34</v>
+      <c r="F29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="F30">
-        <v>34</v>
+      <c r="F30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31">
-        <v>34</v>
+      <c r="F31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2131,16 +2142,16 @@
         <v>90</v>
       </c>
       <c r="C41">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2151,16 +2162,16 @@
         <v>92</v>
       </c>
       <c r="C42">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2171,16 +2182,16 @@
         <v>94</v>
       </c>
       <c r="C43">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2191,16 +2202,56 @@
         <v>96</v>
       </c>
       <c r="C44">
-        <v>572</v>
+        <v>956</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>956</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>956</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
